--- a/Mifos Automation Excels/Client/2562-MS-EI-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DELETE-VAR-INST-UPFRONT-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/2562-MS-EI-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DELETE-VAR-INST-UPFRONT-Makerepayment2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="696" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="811" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="58">
   <si>
     <t>#</t>
   </si>
@@ -165,9 +165,6 @@
     <t>$ 5,000</t>
   </si>
   <si>
-    <t>system</t>
-  </si>
-  <si>
     <t>Interest Receivable(3)</t>
   </si>
   <si>
@@ -195,10 +192,10 @@
     <t>$ 91.35</t>
   </si>
   <si>
-    <t>L4698</t>
-  </si>
-  <si>
-    <t>L4699</t>
+    <t>L3808</t>
+  </si>
+  <si>
+    <t>$ 609.95</t>
   </si>
 </sst>
 </file>
@@ -299,7 +296,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -345,19 +342,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -697,7 +681,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,7 +736,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>520.48</v>
+        <v>609.95000000000005</v>
       </c>
       <c r="B3" s="6">
         <v>191.35</v>
@@ -764,7 +748,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="6">
-        <v>329.13</v>
+        <v>418.6</v>
       </c>
       <c r="F3" s="6">
         <v>0</v>
@@ -821,7 +805,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,21 +1027,21 @@
         <v>3</v>
       </c>
       <c r="B6" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6">
-        <v>964.54</v>
+        <v>881.92</v>
       </c>
       <c r="G6" s="9">
-        <v>7297.73</v>
+        <v>7380.35</v>
       </c>
       <c r="H6" s="6">
-        <v>0</v>
+        <v>82.62</v>
       </c>
       <c r="I6" s="6">
         <v>0</v>
@@ -1086,21 +1070,21 @@
         <v>4</v>
       </c>
       <c r="B7" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="7">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6">
-        <v>891.56</v>
+        <v>890.74</v>
       </c>
       <c r="G7" s="9">
-        <v>6406.17</v>
+        <v>6489.61</v>
       </c>
       <c r="H7" s="6">
-        <v>72.98</v>
+        <v>73.8</v>
       </c>
       <c r="I7" s="6">
         <v>0</v>
@@ -1129,21 +1113,21 @@
         <v>5</v>
       </c>
       <c r="B8" s="6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="7">
-        <v>42156</v>
+        <v>42186</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6">
-        <v>900.48</v>
+        <v>899.64</v>
       </c>
       <c r="G8" s="9">
-        <v>5505.69</v>
+        <v>5589.97</v>
       </c>
       <c r="H8" s="6">
-        <v>64.06</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="I8" s="6">
         <v>0</v>
@@ -1172,21 +1156,21 @@
         <v>6</v>
       </c>
       <c r="B9" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="7">
-        <v>42186</v>
+        <v>42217</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6">
-        <v>909.48</v>
+        <v>908.64</v>
       </c>
       <c r="G9" s="9">
-        <v>4596.21</v>
+        <v>4681.33</v>
       </c>
       <c r="H9" s="6">
-        <v>55.06</v>
+        <v>55.9</v>
       </c>
       <c r="I9" s="6">
         <v>0</v>
@@ -1218,18 +1202,18 @@
         <v>31</v>
       </c>
       <c r="C10" s="7">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6">
-        <v>918.58</v>
+        <v>917.73</v>
       </c>
       <c r="G10" s="9">
-        <v>3677.63</v>
+        <v>3763.6</v>
       </c>
       <c r="H10" s="6">
-        <v>45.96</v>
+        <v>46.81</v>
       </c>
       <c r="I10" s="6">
         <v>0</v>
@@ -1258,21 +1242,21 @@
         <v>8</v>
       </c>
       <c r="B11" s="6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="7">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6">
-        <v>927.76</v>
+        <v>926.9</v>
       </c>
       <c r="G11" s="9">
-        <v>2749.87</v>
+        <v>2836.7</v>
       </c>
       <c r="H11" s="6">
-        <v>36.78</v>
+        <v>37.64</v>
       </c>
       <c r="I11" s="6">
         <v>0</v>
@@ -1301,21 +1285,21 @@
         <v>9</v>
       </c>
       <c r="B12" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="7">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6">
-        <v>937.04</v>
+        <v>936.17</v>
       </c>
       <c r="G12" s="9">
-        <v>1812.83</v>
+        <v>1900.53</v>
       </c>
       <c r="H12" s="6">
-        <v>27.5</v>
+        <v>28.37</v>
       </c>
       <c r="I12" s="6">
         <v>0</v>
@@ -1344,21 +1328,21 @@
         <v>10</v>
       </c>
       <c r="B13" s="6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="7">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6">
-        <v>946.41</v>
+        <v>945.53</v>
       </c>
       <c r="G13" s="6">
-        <v>866.42</v>
+        <v>955</v>
       </c>
       <c r="H13" s="6">
-        <v>18.13</v>
+        <v>19.010000000000002</v>
       </c>
       <c r="I13" s="6">
         <v>0</v>
@@ -1387,21 +1371,21 @@
         <v>11</v>
       </c>
       <c r="B14" s="6">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C14" s="7">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6">
-        <v>866.42</v>
+        <v>955</v>
       </c>
       <c r="G14" s="6">
         <v>0</v>
       </c>
       <c r="H14" s="6">
-        <v>8.66</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="I14" s="6">
         <v>0</v>
@@ -1410,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="6">
-        <v>875.08</v>
+        <v>964.55</v>
       </c>
       <c r="L14" s="6">
         <v>0</v>
@@ -1422,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6">
-        <v>875.08</v>
+        <v>964.55</v>
       </c>
     </row>
   </sheetData>
@@ -1435,8 +1419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1488,7 +1472,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>4851</v>
+        <v>3811</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>22</v>
@@ -1522,7 +1506,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>4848</v>
+        <v>3807</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>22</v>
@@ -1556,7 +1540,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>4846</v>
+        <v>3727</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>22</v>
@@ -1590,7 +1574,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>4849</v>
+        <v>3808</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>22</v>
@@ -1599,7 +1583,7 @@
         <v>42005</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" s="6">
         <v>609.95000000000005</v>
@@ -1624,7 +1608,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>4842</v>
+        <v>3725</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>22</v>
@@ -1666,7 +1650,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1831,7 +1815,7 @@
         <v>42064</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>31</v>
@@ -1844,7 +1828,7 @@
       </c>
       <c r="H2" s="15"/>
       <c r="I2" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1858,7 +1842,7 @@
         <v>42064</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>31</v>
@@ -1867,11 +1851,11 @@
         <v>30</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H3" s="15"/>
       <c r="I3" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1885,7 +1869,7 @@
         <v>42064</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>31</v>
@@ -1897,7 +1881,7 @@
         <v>32</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I4" s="15"/>
     </row>
@@ -2077,7 +2061,7 @@
         <v>42095</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" s="19" t="s">
         <v>31</v>
@@ -2090,7 +2074,7 @@
       </c>
       <c r="H2" s="18"/>
       <c r="I2" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2104,7 +2088,7 @@
         <v>42095</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>31</v>
@@ -2113,11 +2097,11 @@
         <v>30</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2131,7 +2115,7 @@
         <v>42095</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>31</v>
@@ -2143,7 +2127,7 @@
         <v>32</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I4" s="18"/>
     </row>
@@ -2154,10 +2138,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2202,111 +2186,57 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="23">
-        <v>8480</v>
-      </c>
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="6">
+        <v>6938</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="24">
-        <v>42064</v>
-      </c>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="7">
+        <v>42005</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>49</v>
-      </c>
       <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
-        <v>8481</v>
-      </c>
-      <c r="B3" s="23" t="s">
+      <c r="A3" s="6">
+        <v>6939</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="24">
-        <v>42064</v>
-      </c>
-      <c r="D3" s="23" t="s">
+      <c r="C3" s="7">
+        <v>42005</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22" t="s">
         <v>57</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="26">
-        <v>8482</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="27">
-        <v>42095</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="25"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="26">
-        <v>8483</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="27">
-        <v>42095</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="26" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Mifos Automation Excels/Client/2562-MS-EI-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DELETE-VAR-INST-UPFRONT-Makerepayment2.xlsx
+++ b/Mifos Automation Excels/Client/2562-MS-EI-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-2-DELETE-VAR-INST-UPFRONT-Makerepayment2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="811" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" tabRatio="811" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="5" r:id="rId1"/>
@@ -201,7 +206,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -352,6 +357,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -399,7 +407,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -432,9 +440,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -467,6 +492,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -802,10 +844,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -823,12 +865,13 @@
     <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="22" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -868,17 +911,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="7">
@@ -904,8 +948,9 @@
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="7">
@@ -931,8 +976,9 @@
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P3" s="6"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>1</v>
       </c>
@@ -970,14 +1016,15 @@
       <c r="M4" s="6">
         <v>0</v>
       </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N4" s="6"/>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>2</v>
       </c>
@@ -1015,14 +1062,15 @@
       <c r="M5" s="6">
         <v>0</v>
       </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N5" s="6"/>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>3</v>
       </c>
@@ -1058,14 +1106,15 @@
       <c r="M6" s="6">
         <v>0</v>
       </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
+      <c r="N6" s="6"/>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
         <v>964.54</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>4</v>
       </c>
@@ -1101,14 +1150,15 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
+      <c r="N7" s="6"/>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
         <v>964.54</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>5</v>
       </c>
@@ -1144,14 +1194,15 @@
       <c r="M8" s="6">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
+      <c r="N8" s="6"/>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
         <v>964.54</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -1187,14 +1238,15 @@
       <c r="M9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6">
+      <c r="N9" s="6"/>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
         <v>964.54</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>7</v>
       </c>
@@ -1230,14 +1282,15 @@
       <c r="M10" s="6">
         <v>0</v>
       </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
-      <c r="P10" s="6">
+      <c r="N10" s="6"/>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
         <v>964.54</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>8</v>
       </c>
@@ -1273,14 +1326,15 @@
       <c r="M11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="P11" s="6">
+      <c r="N11" s="6"/>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
         <v>964.54</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -1316,14 +1370,15 @@
       <c r="M12" s="6">
         <v>0</v>
       </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="P12" s="6">
+      <c r="N12" s="6"/>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
         <v>964.54</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>10</v>
       </c>
@@ -1359,14 +1414,15 @@
       <c r="M13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="P13" s="6">
+      <c r="N13" s="6"/>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
         <v>964.54</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>11</v>
       </c>
@@ -1402,10 +1458,11 @@
       <c r="M14" s="6">
         <v>0</v>
       </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
-      <c r="P14" s="6">
+      <c r="N14" s="6"/>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
         <v>964.55</v>
       </c>
     </row>
@@ -2140,7 +2197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
